--- a/DD.xlsx
+++ b/DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gurkova\Desktop\GenieLogiciel2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\Projet_Circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6FF9F1-4AA0-4846-9B55-99B784EE0FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E0F3B2-BBA4-44B0-932D-5E32822309C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DE5661E7-29B0-4D0F-8A2B-0C5B080EB22C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DE5661E7-29B0-4D0F-8A2B-0C5B080EB22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>Prénom d'utilisateur</t>
   </si>
   <si>
-    <t>Genre d'utilisateur</t>
-  </si>
-  <si>
     <t>Date de naissance</t>
   </si>
   <si>
@@ -194,12 +191,6 @@
     <t>Titre de la reduction (ex. Noel, Black Friday)</t>
   </si>
   <si>
-    <t>Titre de circuit</t>
-  </si>
-  <si>
-    <t>Description de circuit</t>
-  </si>
-  <si>
     <t>Date de départ</t>
   </si>
   <si>
@@ -209,12 +200,6 @@
     <t>Publié/Brouillon</t>
   </si>
   <si>
-    <t>Titre d'étape</t>
-  </si>
-  <si>
-    <t>Activité prévues</t>
-  </si>
-  <si>
     <t>Adresse local sur le serveur (nom+extension)</t>
   </si>
   <si>
@@ -288,6 +273,21 @@
   </si>
   <si>
     <t>[a-zA-Z]+</t>
+  </si>
+  <si>
+    <t>Activitées prévues</t>
+  </si>
+  <si>
+    <t>Genre de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Description du circuit</t>
+  </si>
+  <si>
+    <t>Titre du circuit</t>
+  </si>
+  <si>
+    <t>Titre de l'étape</t>
   </si>
 </sst>
 </file>
@@ -596,17 +596,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -617,19 +608,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,6 +647,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19ED5F5-E706-45A9-8FF9-747559930B47}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,515 +991,515 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D24" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="D26" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="30"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="23" t="s">
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="33"/>
+      <c r="B32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="D33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="30"/>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="20" t="s">
+      <c r="E36" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
